--- a/TableS1.xlsx
+++ b/TableS1.xlsx
@@ -34,25 +34,25 @@
     <t xml:space="preserve">METHOD</t>
   </si>
   <si>
-    <t xml:space="preserve">RESOL</t>
+    <t xml:space="preserve">RESOLUTION</t>
   </si>
   <si>
     <t xml:space="preserve">RESIDUES</t>
   </si>
   <si>
-    <t xml:space="preserve">BASEPAIRS</t>
+    <t xml:space="preserve">BASE PAIRS</t>
   </si>
   <si>
     <t xml:space="preserve">REPRESENTATIVE</t>
   </si>
   <si>
-    <t xml:space="preserve">INTRAMOLECULAR_PAIRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERMOLECULAR_PAIRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFAM DESC</t>
+    <t xml:space="preserve">INTRAMOLECULAR LONG RANGE DOUBLETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERMOLECULAR LONG RANGE DOUBLETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFAM DESCRIPTION</t>
   </si>
   <si>
     <t xml:space="preserve">NR_4.0_10255.20</t>
@@ -16093,11 +16093,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -16123,13 +16123,13 @@
   </sheetPr>
   <dimension ref="A1:M2833"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J103" activeCellId="0" sqref="J103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.3"/>
@@ -16144,7 +16144,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.17"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
